--- a/image/specimendefinition.xlsx
+++ b/image/specimendefinition.xlsx
@@ -950,43 +950,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="57.7578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.86328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="56.16796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="57.68359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="57.12109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/specimendefinition.xlsx
+++ b/image/specimendefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="355">
   <si>
     <t>Path</t>
   </si>
@@ -332,6 +332,21 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
+    <t>SpecimenDefinition.url</t>
+  </si>
+  <si>
+    <t>Logical canonical URL to reference this SpecimenDefinition (globally unique)</t>
+  </si>
+  <si>
+    <t>An absolute URL that is used to identify this SpecimenDefinition when it is referenced in a specification, model, design or an instance. This SHALL be a URL, SHOULD be globally unique, and SHOULD be an address at which this SpecimenDefinition is (or will be) published. The URL SHOULD include the major version of the SpecimenDefinition. For more information see Technical and Business Versions.</t>
+  </si>
+  <si>
+    <t>Can be a urn:uuid: or a urn:oid:, but real http: addresses are preferred. This is the URI that will be used when making canonical references to this resource.</t>
+  </si>
+  <si>
+    <t>Allows the SpecimenDefinition to be referenced by a single globally unique identifier.</t>
+  </si>
+  <si>
     <t>SpecimenDefinition.identifier</t>
   </si>
   <si>
@@ -339,19 +354,293 @@
 </t>
   </si>
   <si>
-    <t>Business identifier of a kind of specimen</t>
-  </si>
-  <si>
-    <t>A business identifier associated with the kind of specimen.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.typeCollected</t>
+    <t>Business identifier</t>
+  </si>
+  <si>
+    <t>A business identifier assigned to this SpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Business version of the SpecimenDefinition</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the SpecimenDefinition when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the SpecimenDefinition author and is not expected to be globally unique.</t>
+  </si>
+  <si>
+    <t>There may be multiple different instances of a SpecimenDefinition that have the same identifier but different versions.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.title</t>
+  </si>
+  <si>
+    <t>Name for this SpecimenDefinition (Human friendly)</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the SpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.derivedFromCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(SpecimenDefinition)
+</t>
+  </si>
+  <si>
+    <t>Based on FHIR definition of another SpecimenDefinition</t>
+  </si>
+  <si>
+    <t>The canonical URL pointing to another FHIR-defined SpecimenDefinition that is adhered to in whole or in part by this definition.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.derivedFromUri</t>
+  </si>
+  <si>
+    <t>Based on external definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally-defined type of specimen, guideline or other definition that is adhered to in whole or in part by this definition.</t>
+  </si>
+  <si>
+    <t>Specimen definitions may be refinements of other definitions.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The current state of theSpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>A nominal state-transition diagram can be found in the [[definition.html#statemachine | Definition pattern]] documentation
+Unknown does not represent "other" - one of the defined statuses must apply. Unknown is used when the authoring system is not sure what the current status is.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes identifying the status of a SpecimenDefinition resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.1.0</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this SpecimenDefinition is not for real usage</t>
+  </si>
+  <si>
+    <t>A flag to indicate that this SpecimenDefinition is not authored for  genuine usage.</t>
+  </si>
+  <si>
+    <t>Allows filtering of SpecimenDefinition that are appropriate for use vs. not.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.subject[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Group)</t>
+  </si>
+  <si>
+    <t>Type of subject for specimen collection</t>
+  </si>
+  <si>
+    <t>A code or group definition that describes the intended subject  from which this kind of specimen is to be collected.</t>
+  </si>
+  <si>
+    <t>Examples: person, animal, device, water ….</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date status first applied</t>
+  </si>
+  <si>
+    <t>For draft definitions, indicates the date of initial creation. For active definitions, represents the date of activation. For withdrawn definitions, indicates the date of withdrawal.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>The name of the individual or organization that published the SpecimenDefinition</t>
+  </si>
+  <si>
+    <t>Helps establish the "authority/credibility" of the SpecimenDefinition. May also allow for contact.</t>
+  </si>
+  <si>
+    <t>Usually an organization, but may be an individual. The publisher (or steward) of the SpecimenDefinition is the organization or individual primarily responsible for the maintenance and upkeep of the SpecimenDefinition. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the SpecimenDefinition. This item SHOULD be populated unless the information is available from context.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactDetail
+</t>
+  </si>
+  <si>
+    <t>Contact details for the publisher</t>
+  </si>
+  <si>
+    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
+  </si>
+  <si>
+    <t>May be a web site, an email address, a telephone number, etc.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Natural language description of the SpecimenDefinition</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the SpecimenDefinition from the consumer's perspective.</t>
+  </si>
+  <si>
+    <t>This description can be used to capture details such as why the SpecimenDefinition was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the module as conveyed in the text field of the resource itself. This item SHOULD be populated unless the information is available from context.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.useContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsageContext
+</t>
+  </si>
+  <si>
+    <t>Content intends to support these contexts</t>
+  </si>
+  <si>
+    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These terms may be used to assist with indexing and searching of specimen definitions.</t>
+  </si>
+  <si>
+    <t>When multiple usageContexts are specified, there is no expectation for whether all or any of the contexts apply.</t>
+  </si>
+  <si>
+    <t>Assist in searching for appropriate content.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.jurisdiction</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Intended jurisdiction for this SpecimenDefinition (if applicable)</t>
+  </si>
+  <si>
+    <t>A jurisdiction in which the SpecimenDefinition is intended to be used.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes for country, country subdivision and region for indicating where a resource is intended to be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.purpose</t>
+  </si>
+  <si>
+    <t>Why this SpecimenDefinition is defined</t>
+  </si>
+  <si>
+    <t>Explains why this SpecimeDefinition is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>This element does not describe the usage of the SpecimenDefinition. Rather it is for traceability of ''why'' the resource is either needed or ''why'' it is defined as it is. This may be used to point to source materials or specifications that drove the structure of this SpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.copyright</t>
+  </si>
+  <si>
+    <t>License
+Restrictions</t>
+  </si>
+  <si>
+    <t>Use and/or publishing restrictions</t>
+  </si>
+  <si>
+    <t>Copyright statement relating to the SpecimenDefinition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the SpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>Consumers of the SpecimenDefinition must be able to determine any legal restrictions on the use of the artifact and/or its content.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>When SpecimenDefinition was approved by publisher</t>
+  </si>
+  <si>
+    <t>The date on which the asset content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>The date may be more recent than the approval date because of minor changes / editorial corrections.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.lastReviewDate</t>
+  </si>
+  <si>
+    <t>Last review date for the SpecimenDefinition</t>
+  </si>
+  <si>
+    <t>The date on which the asset content was last reviewed. Review happens periodically after that, but doesn't change the original approval date.</t>
+  </si>
+  <si>
+    <t>If specified, this is usually after the approval date.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The effective date range for the SpecimenDefinition</t>
+  </si>
+  <si>
+    <t>The period during which the SpecimenDefinition content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for a SpecimenDefinition determines when the content is applicable for usage and is independent of publication and review dates.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.typeCollected</t>
+  </si>
+  <si>
     <t>Kind of material to collect</t>
   </si>
   <si>
@@ -389,10 +678,6 @@
   </si>
   <si>
     <t>SpecimenDefinition.timeAspect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Time aspect for collection</t>
@@ -483,10 +768,6 @@
     <t>SpecimenDefinition.typeTested.isDerived</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
     <t>Primary or secondary specimen</t>
   </si>
   <si>
@@ -523,9 +804,6 @@
     <t>preferred, alternate</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Degree of preference of a type of conditioned specimen.</t>
   </si>
   <si>
@@ -560,6 +838,9 @@
   </si>
   <si>
     <t>The type of material of the container.</t>
+  </si>
+  <si>
+    <t>Examples: glass, plastic, metal.</t>
   </si>
   <si>
     <t>Types of material for specimen containers.</t>
@@ -722,6 +1003,15 @@
     <t>OM4-14</t>
   </si>
   <si>
+    <t>SpecimenDefinition.typeTested.singleUse</t>
+  </si>
+  <si>
+    <t>Specimen for single use only</t>
+  </si>
+  <si>
+    <t>Specimen can be used by only one test or panel if the value is "true".</t>
+  </si>
+  <si>
     <t>SpecimenDefinition.typeTested.rejectionCriterion</t>
   </si>
   <si>
@@ -808,6 +1098,21 @@
   </si>
   <si>
     <t>freeze within 4 hours</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.typeTested.testingDestination</t>
+  </si>
+  <si>
+    <t>Where the specimen will be tested</t>
+  </si>
+  <si>
+    <t>Where the specimen will be tested: e.g., lab, sector, device or any combination of these.</t>
+  </si>
+  <si>
+    <t>Codes specifying where the specimen will be tested.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
 </sst>
 </file>
@@ -941,7 +1246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK49"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -960,7 +1265,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.94921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -973,7 +1278,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="57.68359375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="94.78125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -2070,16 +2375,20 @@
         <v>48</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>38</v>
       </c>
@@ -2150,7 +2459,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2173,13 +2482,13 @@
         <v>48</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2206,13 +2515,13 @@
         <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>38</v>
@@ -2230,7 +2539,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -2245,7 +2554,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -2253,7 +2562,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2264,7 +2573,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>38</v>
@@ -2276,15 +2585,17 @@
         <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>38</v>
@@ -2309,13 +2620,13 @@
         <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>38</v>
@@ -2333,13 +2644,13 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>38</v>
@@ -2348,7 +2659,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -2356,7 +2667,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2379,13 +2690,13 @@
         <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2400,7 +2711,7 @@
         <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>38</v>
@@ -2436,7 +2747,7 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2451,7 +2762,7 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2459,7 +2770,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2482,13 +2793,13 @@
         <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2515,13 +2826,13 @@
         <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>38</v>
@@ -2539,7 +2850,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2562,7 +2873,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2582,19 +2893,21 @@
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>38</v>
       </c>
@@ -2642,7 +2955,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2654,7 +2967,7 @@
         <v>38</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>38</v>
@@ -2665,7 +2978,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2673,7 +2986,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>47</v>
@@ -2682,21 +2995,23 @@
         <v>38</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>38</v>
@@ -2721,13 +3036,13 @@
         <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>38</v>
@@ -2745,10 +3060,10 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>47</v>
@@ -2763,44 +3078,44 @@
         <v>38</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2850,13 +3165,13 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>38</v>
@@ -2868,48 +3183,46 @@
         <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>38</v>
       </c>
@@ -2957,13 +3270,13 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>38</v>
@@ -2975,12 +3288,12 @@
         <v>38</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3000,16 +3313,16 @@
         <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3024,7 +3337,7 @@
         <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>38</v>
@@ -3060,7 +3373,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3075,7 +3388,7 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -3083,7 +3396,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3103,19 +3416,21 @@
         <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>38</v>
       </c>
@@ -3139,13 +3454,13 @@
         <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>38</v>
@@ -3163,7 +3478,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3186,7 +3501,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3194,10 +3509,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>38</v>
@@ -3206,18 +3521,20 @@
         <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>38</v>
@@ -3230,7 +3547,7 @@
         <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>38</v>
@@ -3242,13 +3559,13 @@
         <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>38</v>
@@ -3266,13 +3583,13 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>38</v>
@@ -3281,7 +3598,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3289,7 +3606,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3312,15 +3629,17 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>38</v>
@@ -3369,7 +3688,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3381,7 +3700,7 @@
         <v>38</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>38</v>
@@ -3392,7 +3711,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3403,7 +3722,7 @@
         <v>39</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>38</v>
@@ -3415,16 +3734,20 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>38</v>
       </c>
@@ -3472,13 +3795,13 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>38</v>
@@ -3490,16 +3813,16 @@
         <v>38</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3515,20 +3838,18 @@
         <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>38</v>
@@ -3553,13 +3874,13 @@
         <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>38</v>
@@ -3577,7 +3898,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3595,48 +3916,46 @@
         <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>38</v>
       </c>
@@ -3684,13 +4003,13 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>38</v>
@@ -3702,16 +4021,16 @@
         <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3730,16 +4049,18 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>38</v>
       </c>
@@ -3763,13 +4084,13 @@
         <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
@@ -3787,7 +4108,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3810,7 +4131,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3833,15 +4154,17 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>38</v>
@@ -3866,13 +4189,13 @@
         <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>38</v>
@@ -3890,7 +4213,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3913,7 +4236,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3936,18 +4259,18 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>38</v>
       </c>
@@ -3971,13 +4294,13 @@
         <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>38</v>
@@ -3995,7 +4318,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4018,7 +4341,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4038,18 +4361,20 @@
         <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>38</v>
@@ -4062,7 +4387,7 @@
         <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>38</v>
@@ -4098,7 +4423,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4113,7 +4438,7 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -4121,7 +4446,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4141,16 +4466,16 @@
         <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4177,13 +4502,13 @@
         <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>38</v>
@@ -4201,7 +4526,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4216,7 +4541,7 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -4224,7 +4549,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4235,7 +4560,7 @@
         <v>39</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>38</v>
@@ -4244,16 +4569,16 @@
         <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4280,13 +4605,13 @@
         <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>38</v>
@@ -4304,13 +4629,13 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>38</v>
@@ -4319,7 +4644,7 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4327,7 +4652,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4338,7 +4663,7 @@
         <v>39</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>38</v>
@@ -4347,16 +4672,16 @@
         <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4371,7 +4696,7 @@
         <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>38</v>
@@ -4407,22 +4732,22 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -4430,7 +4755,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4441,7 +4766,7 @@
         <v>39</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>38</v>
@@ -4450,16 +4775,16 @@
         <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4486,13 +4811,13 @@
         <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>38</v>
@@ -4510,13 +4835,13 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>38</v>
@@ -4528,16 +4853,16 @@
         <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4556,17 +4881,15 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>38</v>
@@ -4615,7 +4938,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4627,54 +4950,50 @@
         <v>38</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>38</v>
       </c>
@@ -4722,13 +5041,13 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>38</v>
@@ -4740,23 +5059,23 @@
         <v>38</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>89</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>38</v>
@@ -4768,15 +5087,17 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>38</v>
@@ -4801,13 +5122,13 @@
         <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>38</v>
@@ -4825,13 +5146,13 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>38</v>
@@ -4840,47 +5161,51 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>38</v>
       </c>
@@ -4928,13 +5253,13 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>38</v>
@@ -4943,15 +5268,15 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4974,13 +5299,13 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4995,7 +5320,7 @@
         <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>38</v>
@@ -5031,7 +5356,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5046,7 +5371,7 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -5054,7 +5379,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5077,13 +5402,13 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5110,13 +5435,13 @@
         <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>38</v>
@@ -5134,7 +5459,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5149,7 +5474,7 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -5157,7 +5482,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5165,10 +5490,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>38</v>
@@ -5180,13 +5505,13 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5201,7 +5526,7 @@
         <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>38</v>
@@ -5213,13 +5538,13 @@
         <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>38</v>
@@ -5237,13 +5562,13 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>38</v>
@@ -5252,7 +5577,7 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -5260,7 +5585,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5271,7 +5596,7 @@
         <v>39</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>38</v>
@@ -5283,13 +5608,13 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5340,19 +5665,19 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>38</v>
@@ -5363,7 +5688,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5386,13 +5711,13 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5443,7 +5768,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5461,12 +5786,12 @@
         <v>38</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>140</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5495,7 +5820,7 @@
         <v>93</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>95</v>
@@ -5548,7 +5873,7 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5566,16 +5891,16 @@
         <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>140</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5597,10 +5922,10 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>95</v>
@@ -5655,7 +5980,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5678,7 +6003,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5701,15 +6026,17 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>38</v>
@@ -5734,13 +6061,13 @@
         <v>38</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>38</v>
@@ -5758,7 +6085,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -5773,7 +6100,7 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
@@ -5781,7 +6108,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5804,13 +6131,13 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5837,13 +6164,13 @@
         <v>38</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>38</v>
@@ -5861,7 +6188,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -5884,7 +6211,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5907,16 +6234,18 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>38</v>
       </c>
@@ -5940,13 +6269,13 @@
         <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>38</v>
@@ -5964,7 +6293,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -5987,7 +6316,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6010,13 +6339,13 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6031,7 +6360,7 @@
         <v>38</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>38</v>
@@ -6067,7 +6396,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6082,9 +6411,2184 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/image/specimendefinition.xlsx
+++ b/image/specimendefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="355">
   <si>
     <t>Path</t>
   </si>
@@ -332,6 +332,21 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
+    <t>SpecimenDefinition.url</t>
+  </si>
+  <si>
+    <t>Logical canonical URL to reference this SpecimenDefinition (globally unique)</t>
+  </si>
+  <si>
+    <t>An absolute URL that is used to identify this SpecimenDefinition when it is referenced in a specification, model, design or an instance. This SHALL be a URL, SHOULD be globally unique, and SHOULD be an address at which this SpecimenDefinition is (or will be) published. The URL SHOULD include the major version of the SpecimenDefinition. For more information see Technical and Business Versions.</t>
+  </si>
+  <si>
+    <t>Can be a urn:uuid: or a urn:oid:, but real http: addresses are preferred. This is the URI that will be used when making canonical references to this resource.</t>
+  </si>
+  <si>
+    <t>Allows the SpecimenDefinition to be referenced by a single globally unique identifier.</t>
+  </si>
+  <si>
     <t>SpecimenDefinition.identifier</t>
   </si>
   <si>
@@ -339,19 +354,293 @@
 </t>
   </si>
   <si>
-    <t>Business identifier of a kind of specimen</t>
-  </si>
-  <si>
-    <t>A business identifier associated with the kind of specimen.</t>
-  </si>
-  <si>
-    <t>SpecimenDefinition.typeCollected</t>
+    <t>Business identifier</t>
+  </si>
+  <si>
+    <t>A business identifier assigned to this SpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Business version of the SpecimenDefinition</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the SpecimenDefinition when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the SpecimenDefinition author and is not expected to be globally unique.</t>
+  </si>
+  <si>
+    <t>There may be multiple different instances of a SpecimenDefinition that have the same identifier but different versions.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.title</t>
+  </si>
+  <si>
+    <t>Name for this SpecimenDefinition (Human friendly)</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the SpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.derivedFromCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(SpecimenDefinition)
+</t>
+  </si>
+  <si>
+    <t>Based on FHIR definition of another SpecimenDefinition</t>
+  </si>
+  <si>
+    <t>The canonical URL pointing to another FHIR-defined SpecimenDefinition that is adhered to in whole or in part by this definition.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.derivedFromUri</t>
+  </si>
+  <si>
+    <t>Based on external definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally-defined type of specimen, guideline or other definition that is adhered to in whole or in part by this definition.</t>
+  </si>
+  <si>
+    <t>Specimen definitions may be refinements of other definitions.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The current state of theSpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>A nominal state-transition diagram can be found in the [[definition.html#statemachine | Definition pattern]] documentation
+Unknown does not represent "other" - one of the defined statuses must apply. Unknown is used when the authoring system is not sure what the current status is.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes identifying the status of a SpecimenDefinition resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.1.0</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this SpecimenDefinition is not for real usage</t>
+  </si>
+  <si>
+    <t>A flag to indicate that this SpecimenDefinition is not authored for  genuine usage.</t>
+  </si>
+  <si>
+    <t>Allows filtering of SpecimenDefinition that are appropriate for use vs. not.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.subject[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Group)</t>
+  </si>
+  <si>
+    <t>Type of subject for specimen collection</t>
+  </si>
+  <si>
+    <t>A code or group definition that describes the intended subject  from which this kind of specimen is to be collected.</t>
+  </si>
+  <si>
+    <t>Examples: person, animal, device, water ….</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date status first applied</t>
+  </si>
+  <si>
+    <t>For draft definitions, indicates the date of initial creation. For active definitions, represents the date of activation. For withdrawn definitions, indicates the date of withdrawal.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>The name of the individual or organization that published the SpecimenDefinition</t>
+  </si>
+  <si>
+    <t>Helps establish the "authority/credibility" of the SpecimenDefinition. May also allow for contact.</t>
+  </si>
+  <si>
+    <t>Usually an organization, but may be an individual. The publisher (or steward) of the SpecimenDefinition is the organization or individual primarily responsible for the maintenance and upkeep of the SpecimenDefinition. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the SpecimenDefinition. This item SHOULD be populated unless the information is available from context.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactDetail
+</t>
+  </si>
+  <si>
+    <t>Contact details for the publisher</t>
+  </si>
+  <si>
+    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
+  </si>
+  <si>
+    <t>May be a web site, an email address, a telephone number, etc.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Natural language description of the SpecimenDefinition</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the SpecimenDefinition from the consumer's perspective.</t>
+  </si>
+  <si>
+    <t>This description can be used to capture details such as why the SpecimenDefinition was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the module as conveyed in the text field of the resource itself. This item SHOULD be populated unless the information is available from context.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.useContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsageContext
+</t>
+  </si>
+  <si>
+    <t>Content intends to support these contexts</t>
+  </si>
+  <si>
+    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These terms may be used to assist with indexing and searching of specimen definitions.</t>
+  </si>
+  <si>
+    <t>When multiple usageContexts are specified, there is no expectation for whether all or any of the contexts apply.</t>
+  </si>
+  <si>
+    <t>Assist in searching for appropriate content.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.jurisdiction</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Intended jurisdiction for this SpecimenDefinition (if applicable)</t>
+  </si>
+  <si>
+    <t>A jurisdiction in which the SpecimenDefinition is intended to be used.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes for country, country subdivision and region for indicating where a resource is intended to be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.purpose</t>
+  </si>
+  <si>
+    <t>Why this SpecimenDefinition is defined</t>
+  </si>
+  <si>
+    <t>Explains why this SpecimeDefinition is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>This element does not describe the usage of the SpecimenDefinition. Rather it is for traceability of ''why'' the resource is either needed or ''why'' it is defined as it is. This may be used to point to source materials or specifications that drove the structure of this SpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.copyright</t>
+  </si>
+  <si>
+    <t>License
+Restrictions</t>
+  </si>
+  <si>
+    <t>Use and/or publishing restrictions</t>
+  </si>
+  <si>
+    <t>Copyright statement relating to the SpecimenDefinition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the SpecimenDefinition.</t>
+  </si>
+  <si>
+    <t>Consumers of the SpecimenDefinition must be able to determine any legal restrictions on the use of the artifact and/or its content.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>When SpecimenDefinition was approved by publisher</t>
+  </si>
+  <si>
+    <t>The date on which the asset content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>The date may be more recent than the approval date because of minor changes / editorial corrections.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.lastReviewDate</t>
+  </si>
+  <si>
+    <t>Last review date for the SpecimenDefinition</t>
+  </si>
+  <si>
+    <t>The date on which the asset content was last reviewed. Review happens periodically after that, but doesn't change the original approval date.</t>
+  </si>
+  <si>
+    <t>If specified, this is usually after the approval date.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The effective date range for the SpecimenDefinition</t>
+  </si>
+  <si>
+    <t>The period during which the SpecimenDefinition content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for a SpecimenDefinition determines when the content is applicable for usage and is independent of publication and review dates.</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.typeCollected</t>
+  </si>
+  <si>
     <t>Kind of material to collect</t>
   </si>
   <si>
@@ -389,10 +678,6 @@
   </si>
   <si>
     <t>SpecimenDefinition.timeAspect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Time aspect for collection</t>
@@ -483,10 +768,6 @@
     <t>SpecimenDefinition.typeTested.isDerived</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
     <t>Primary or secondary specimen</t>
   </si>
   <si>
@@ -523,9 +804,6 @@
     <t>preferred, alternate</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Degree of preference of a type of conditioned specimen.</t>
   </si>
   <si>
@@ -560,6 +838,9 @@
   </si>
   <si>
     <t>The type of material of the container.</t>
+  </si>
+  <si>
+    <t>Examples: glass, plastic, metal.</t>
   </si>
   <si>
     <t>Types of material for specimen containers.</t>
@@ -722,6 +1003,15 @@
     <t>OM4-14</t>
   </si>
   <si>
+    <t>SpecimenDefinition.typeTested.singleUse</t>
+  </si>
+  <si>
+    <t>Specimen for single use only</t>
+  </si>
+  <si>
+    <t>Specimen can be used by only one test or panel if the value is "true".</t>
+  </si>
+  <si>
     <t>SpecimenDefinition.typeTested.rejectionCriterion</t>
   </si>
   <si>
@@ -808,6 +1098,21 @@
   </si>
   <si>
     <t>freeze within 4 hours</t>
+  </si>
+  <si>
+    <t>SpecimenDefinition.typeTested.testingDestination</t>
+  </si>
+  <si>
+    <t>Where the specimen will be tested</t>
+  </si>
+  <si>
+    <t>Where the specimen will be tested: e.g., lab, sector, device or any combination of these.</t>
+  </si>
+  <si>
+    <t>Codes specifying where the specimen will be tested.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
 </sst>
 </file>
@@ -941,7 +1246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK49"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -950,43 +1255,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.94921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="57.7578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.86328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="56.16796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="94.78125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="57.12109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2070,16 +2375,20 @@
         <v>48</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>38</v>
       </c>
@@ -2150,7 +2459,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2173,13 +2482,13 @@
         <v>48</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2206,13 +2515,13 @@
         <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>38</v>
@@ -2230,7 +2539,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -2245,7 +2554,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -2253,7 +2562,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2264,7 +2573,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>38</v>
@@ -2276,15 +2585,17 @@
         <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>38</v>
@@ -2309,13 +2620,13 @@
         <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>38</v>
@@ -2333,13 +2644,13 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>38</v>
@@ -2348,7 +2659,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -2356,7 +2667,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2379,13 +2690,13 @@
         <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2400,7 +2711,7 @@
         <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>38</v>
@@ -2436,7 +2747,7 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2451,7 +2762,7 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2459,7 +2770,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2482,13 +2793,13 @@
         <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2515,13 +2826,13 @@
         <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>38</v>
@@ -2539,7 +2850,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2562,7 +2873,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2582,19 +2893,21 @@
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>38</v>
       </c>
@@ -2642,7 +2955,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2654,7 +2967,7 @@
         <v>38</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>38</v>
@@ -2665,7 +2978,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2673,7 +2986,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>47</v>
@@ -2682,21 +2995,23 @@
         <v>38</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>38</v>
@@ -2721,13 +3036,13 @@
         <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>38</v>
@@ -2745,10 +3060,10 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>47</v>
@@ -2763,44 +3078,44 @@
         <v>38</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2850,13 +3165,13 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>38</v>
@@ -2868,48 +3183,46 @@
         <v>38</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>38</v>
       </c>
@@ -2957,13 +3270,13 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>38</v>
@@ -2975,12 +3288,12 @@
         <v>38</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3000,16 +3313,16 @@
         <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3024,7 +3337,7 @@
         <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>38</v>
@@ -3060,7 +3373,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3075,7 +3388,7 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -3083,7 +3396,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3103,19 +3416,21 @@
         <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>38</v>
       </c>
@@ -3139,13 +3454,13 @@
         <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>38</v>
@@ -3163,7 +3478,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3186,7 +3501,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3194,10 +3509,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>38</v>
@@ -3206,18 +3521,20 @@
         <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>38</v>
@@ -3230,7 +3547,7 @@
         <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>38</v>
@@ -3242,13 +3559,13 @@
         <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>38</v>
@@ -3266,13 +3583,13 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>38</v>
@@ -3281,7 +3598,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3289,7 +3606,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3312,15 +3629,17 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>38</v>
@@ -3369,7 +3688,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3381,7 +3700,7 @@
         <v>38</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>38</v>
@@ -3392,7 +3711,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3403,7 +3722,7 @@
         <v>39</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>38</v>
@@ -3415,16 +3734,20 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>38</v>
       </c>
@@ -3472,13 +3795,13 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>38</v>
@@ -3490,16 +3813,16 @@
         <v>38</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3515,20 +3838,18 @@
         <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>38</v>
@@ -3553,13 +3874,13 @@
         <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>38</v>
@@ -3577,7 +3898,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3595,48 +3916,46 @@
         <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>38</v>
       </c>
@@ -3684,13 +4003,13 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>38</v>
@@ -3702,16 +4021,16 @@
         <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3730,16 +4049,18 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>38</v>
       </c>
@@ -3763,13 +4084,13 @@
         <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
@@ -3787,7 +4108,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3810,7 +4131,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3833,15 +4154,17 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>38</v>
@@ -3866,13 +4189,13 @@
         <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>38</v>
@@ -3890,7 +4213,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3913,7 +4236,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3936,18 +4259,18 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>38</v>
       </c>
@@ -3971,13 +4294,13 @@
         <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>38</v>
@@ -3995,7 +4318,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4018,7 +4341,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4038,18 +4361,20 @@
         <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>38</v>
@@ -4062,7 +4387,7 @@
         <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>38</v>
@@ -4098,7 +4423,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4113,7 +4438,7 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -4121,7 +4446,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4141,16 +4466,16 @@
         <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4177,13 +4502,13 @@
         <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>38</v>
@@ -4201,7 +4526,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4216,7 +4541,7 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -4224,7 +4549,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4235,7 +4560,7 @@
         <v>39</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>38</v>
@@ -4244,16 +4569,16 @@
         <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4280,13 +4605,13 @@
         <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>38</v>
@@ -4304,13 +4629,13 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>38</v>
@@ -4319,7 +4644,7 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4327,7 +4652,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4338,7 +4663,7 @@
         <v>39</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>38</v>
@@ -4347,16 +4672,16 @@
         <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4371,7 +4696,7 @@
         <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>38</v>
@@ -4407,22 +4732,22 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -4430,7 +4755,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4441,7 +4766,7 @@
         <v>39</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>38</v>
@@ -4450,16 +4775,16 @@
         <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4486,13 +4811,13 @@
         <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>38</v>
@@ -4510,13 +4835,13 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>38</v>
@@ -4528,16 +4853,16 @@
         <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4556,17 +4881,15 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>38</v>
@@ -4615,7 +4938,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4627,54 +4950,50 @@
         <v>38</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>38</v>
       </c>
@@ -4722,13 +5041,13 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>38</v>
@@ -4740,23 +5059,23 @@
         <v>38</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>89</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>38</v>
@@ -4768,15 +5087,17 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>38</v>
@@ -4801,13 +5122,13 @@
         <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>38</v>
@@ -4825,13 +5146,13 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>38</v>
@@ -4840,47 +5161,51 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>38</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>38</v>
       </c>
@@ -4928,13 +5253,13 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>38</v>
@@ -4943,15 +5268,15 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4974,13 +5299,13 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4995,7 +5320,7 @@
         <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>38</v>
@@ -5031,7 +5356,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5046,7 +5371,7 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -5054,7 +5379,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5077,13 +5402,13 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5110,13 +5435,13 @@
         <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>38</v>
@@ -5134,7 +5459,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5149,7 +5474,7 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -5157,7 +5482,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5165,10 +5490,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>38</v>
@@ -5180,13 +5505,13 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5201,7 +5526,7 @@
         <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>38</v>
@@ -5213,13 +5538,13 @@
         <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>38</v>
@@ -5237,13 +5562,13 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>38</v>
@@ -5252,7 +5577,7 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -5260,7 +5585,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5271,7 +5596,7 @@
         <v>39</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>38</v>
@@ -5283,13 +5608,13 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5340,19 +5665,19 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>38</v>
@@ -5363,7 +5688,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5386,13 +5711,13 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5443,7 +5768,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5461,12 +5786,12 @@
         <v>38</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>140</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5495,7 +5820,7 @@
         <v>93</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>95</v>
@@ -5548,7 +5873,7 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5566,16 +5891,16 @@
         <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>140</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5597,10 +5922,10 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>95</v>
@@ -5655,7 +5980,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5678,7 +6003,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5701,15 +6026,17 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>38</v>
@@ -5734,13 +6061,13 @@
         <v>38</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>38</v>
@@ -5758,7 +6085,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -5773,7 +6100,7 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
@@ -5781,7 +6108,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5804,13 +6131,13 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5837,13 +6164,13 @@
         <v>38</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>38</v>
@@ -5861,7 +6188,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -5884,7 +6211,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5907,16 +6234,18 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>38</v>
       </c>
@@ -5940,13 +6269,13 @@
         <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>38</v>
@@ -5964,7 +6293,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -5987,7 +6316,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6010,13 +6339,13 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6031,7 +6360,7 @@
         <v>38</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>38</v>
@@ -6067,7 +6396,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6082,9 +6411,2184 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/image/specimendefinition.xlsx
+++ b/image/specimendefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="354">
   <si>
     <t>Path</t>
   </si>
@@ -162,7 +162,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -361,10 +361,6 @@
   </si>
   <si>
     <t>SpecimenDefinition.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the SpecimenDefinition</t>
@@ -1255,43 +1251,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.94921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.83984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.78125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="57.12109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.86328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="56.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2585,16 +2581,16 @@
         <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2667,7 +2663,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2690,13 +2686,13 @@
         <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2747,7 +2743,7 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2770,7 +2766,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2793,13 +2789,13 @@
         <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2850,7 +2846,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2873,7 +2869,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2899,14 +2895,14 @@
         <v>60</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>38</v>
@@ -2955,7 +2951,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2978,7 +2974,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3004,13 +3000,13 @@
         <v>66</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3036,14 +3032,14 @@
         <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>38</v>
       </c>
@@ -3060,7 +3056,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>47</v>
@@ -3083,7 +3079,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3106,16 +3102,16 @@
         <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3165,7 +3161,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -3188,7 +3184,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3211,16 +3207,16 @@
         <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3270,7 +3266,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3293,7 +3289,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3316,13 +3312,13 @@
         <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3373,7 +3369,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3396,7 +3392,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3419,17 +3415,17 @@
         <v>48</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>38</v>
@@ -3478,7 +3474,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3501,7 +3497,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3524,16 +3520,16 @@
         <v>48</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3583,7 +3579,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3606,7 +3602,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3629,16 +3625,16 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3688,7 +3684,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3711,7 +3707,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3734,19 +3730,19 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>38</v>
@@ -3795,7 +3791,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3818,7 +3814,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3841,13 +3837,13 @@
         <v>48</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3874,14 +3870,14 @@
         <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>38</v>
       </c>
@@ -3898,7 +3894,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3921,7 +3917,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3944,16 +3940,16 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4003,7 +3999,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -4026,11 +4022,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4049,17 +4045,17 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>38</v>
@@ -4108,7 +4104,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -4131,7 +4127,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4154,16 +4150,16 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4213,7 +4209,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -4236,7 +4232,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4259,16 +4255,16 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4318,7 +4314,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4341,7 +4337,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4364,16 +4360,16 @@
         <v>48</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4423,7 +4419,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4446,7 +4442,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4469,13 +4465,13 @@
         <v>48</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4502,46 +4498,46 @@
         <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="X31" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="Y31" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -4549,7 +4545,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4572,13 +4568,13 @@
         <v>48</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4605,14 +4601,14 @@
         <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>38</v>
       </c>
@@ -4629,7 +4625,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4644,7 +4640,7 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4652,7 +4648,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4675,13 +4671,13 @@
         <v>48</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4696,58 +4692,58 @@
         <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -4755,7 +4751,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4778,13 +4774,13 @@
         <v>48</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4811,14 +4807,14 @@
         <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>38</v>
       </c>
@@ -4835,7 +4831,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4858,7 +4854,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4881,13 +4877,13 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4938,7 +4934,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4950,7 +4946,7 @@
         <v>38</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>38</v>
@@ -4961,7 +4957,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4984,13 +4980,13 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5041,30 +5037,30 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5093,7 +5089,7 @@
         <v>93</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>95</v>
@@ -5146,7 +5142,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5164,16 +5160,16 @@
         <v>38</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5195,10 +5191,10 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>95</v>
@@ -5253,7 +5249,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5276,7 +5272,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5299,13 +5295,13 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5320,58 +5316,58 @@
         <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -5379,7 +5375,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5402,13 +5398,13 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5435,13 +5431,13 @@
         <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>38</v>
@@ -5459,7 +5455,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5482,7 +5478,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5508,10 +5504,10 @@
         <v>66</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5526,58 +5522,58 @@
         <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="X41" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="T41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="X41" t="s" s="2">
+      <c r="Y41" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -5585,7 +5581,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5608,13 +5604,13 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5665,7 +5661,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5677,7 +5673,7 @@
         <v>38</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>38</v>
@@ -5688,7 +5684,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5711,13 +5707,13 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5768,30 +5764,30 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5820,7 +5816,7 @@
         <v>93</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>95</v>
@@ -5873,7 +5869,7 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5891,16 +5887,16 @@
         <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5922,10 +5918,10 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>95</v>
@@ -5980,7 +5976,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -6003,7 +5999,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6026,16 +6022,16 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6061,14 +6057,14 @@
         <v>38</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>38</v>
       </c>
@@ -6085,7 +6081,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -6108,7 +6104,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6131,13 +6127,13 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6164,14 +6160,14 @@
         <v>38</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>38</v>
       </c>
@@ -6188,7 +6184,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -6211,7 +6207,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6234,17 +6230,17 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>38</v>
@@ -6269,14 +6265,14 @@
         <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>38</v>
       </c>
@@ -6293,7 +6289,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -6316,7 +6312,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6339,13 +6335,13 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6360,58 +6356,58 @@
         <v>38</v>
       </c>
       <c r="S49" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -6419,7 +6415,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6442,13 +6438,13 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6499,7 +6495,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6514,7 +6510,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -6522,7 +6518,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6545,13 +6541,13 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6602,7 +6598,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6617,7 +6613,7 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
@@ -6625,7 +6621,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6648,13 +6644,13 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6705,7 +6701,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6717,10 +6713,10 @@
         <v>38</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -6728,7 +6724,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6751,13 +6747,13 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6808,30 +6804,30 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6860,7 +6856,7 @@
         <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>95</v>
@@ -6913,7 +6909,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -6931,16 +6927,16 @@
         <v>38</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -6962,10 +6958,10 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>95</v>
@@ -7020,7 +7016,7 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
@@ -7043,7 +7039,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7066,13 +7062,13 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7099,14 +7095,14 @@
         <v>38</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>38</v>
       </c>
@@ -7123,7 +7119,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>47</v>
@@ -7138,7 +7134,7 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -7146,7 +7142,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7169,13 +7165,13 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7226,7 +7222,7 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
@@ -7241,7 +7237,7 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -7249,7 +7245,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7272,13 +7268,13 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7329,7 +7325,7 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>39</v>
@@ -7344,7 +7340,7 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -7352,7 +7348,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7375,13 +7371,13 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7432,7 +7428,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -7447,7 +7443,7 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -7455,7 +7451,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7478,13 +7474,13 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7535,7 +7531,7 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
@@ -7558,7 +7554,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7581,13 +7577,13 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7614,14 +7610,14 @@
         <v>38</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>38</v>
       </c>
@@ -7638,7 +7634,7 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
@@ -7653,7 +7649,7 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -7661,7 +7657,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7684,13 +7680,13 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7741,7 +7737,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7753,7 +7749,7 @@
         <v>38</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>38</v>
@@ -7764,7 +7760,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7787,13 +7783,13 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7844,30 +7840,30 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7896,7 +7892,7 @@
         <v>93</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>95</v>
@@ -7949,7 +7945,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -7967,16 +7963,16 @@
         <v>38</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -7998,10 +7994,10 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>95</v>
@@ -8056,7 +8052,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
@@ -8079,7 +8075,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8102,13 +8098,13 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8135,46 +8131,46 @@
         <v>38</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="Y66" t="s" s="2">
+      <c r="Z66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
@@ -8182,7 +8178,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8205,13 +8201,13 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8262,7 +8258,7 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>39</v>
@@ -8285,7 +8281,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8308,13 +8304,13 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8365,7 +8361,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
@@ -8388,7 +8384,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8411,13 +8407,13 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8432,7 +8428,7 @@
         <v>38</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>38</v>
@@ -8468,7 +8464,7 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>39</v>
@@ -8491,7 +8487,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8514,13 +8510,13 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8547,14 +8543,14 @@
         <v>38</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>38</v>
       </c>
@@ -8571,7 +8567,7 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>39</v>
